--- a/parser_output/webapp.xlsx
+++ b/parser_output/webapp.xlsx
@@ -19,15 +19,6 @@
     <x:t>Id</x:t>
   </x:si>
   <x:si>
-    <x:t>English/EN(en)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Italiano/IT(it)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Language</x:t>
-  </x:si>
-  <x:si>
     <x:t>en</x:t>
   </x:si>
   <x:si>
@@ -76,1801 +67,1801 @@
     <x:t>Login</x:t>
   </x:si>
   <x:si>
+    <x:t>LoginViewController_SignUp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Signin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Registrati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginViewController_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginViewController_ErrorMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Login not possible, please check login credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Impossibile effettuare il login, controllare le credenziali di accesso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_ResetPassword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password recovery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recupera password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_InsertEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insert your E-mail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inserisci la tua E-mail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_AlertOk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Completed procedure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Procedura completata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_AlertOkMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Riceverai una mail con i passi necessari per effettuare il reset della password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_AlertError</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PasswordResetViewController_AlertErrorMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Impossibile effettuare il reset della password, controllare i dati inseriti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_LoginData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATI DI LOGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_ConfirmPassword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Confirm password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_UserData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INFORMAZIONI PERSONALI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compagnia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Mr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sig.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Ms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sig.ra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nome</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Surname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cognome</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Role</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruolo aziendale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Telefono</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indirizzo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Zip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Città</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Country</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Activity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tipo di attività</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_RequiredFields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*Campi obbligatori</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Authorizations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTORIZZAZIONI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Privacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Termini di servizio e politica della Privacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Marketing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Autorizzazione dati commerciali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_SignUp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Commercial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_ValidationError</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore di validazione</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_CheckFields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Controlla i dati inseriti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Registered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Registrazione completata, controlla il tuo indirizzo email per verificare l'utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignUpViewController_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrindersList</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parco Macchine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderSettings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Regolazioni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderMonitor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Statistiche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderService</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderLiking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sondaggio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEnvironment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vai a:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderSelectConnected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleziona almeno un macinacaffè connesso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderSelectNoPermissions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L'accesso a questa sezione è vietato per questo macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderCell_Deactivated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disattiva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderCell_Grinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERISCI MANUALMENTE lA MATRICOLA EVIDENZIATA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matricola</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_Continue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Procedi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indietro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_ErrorWrongCodeTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_ErrorWrongCodeMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matricola non valida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_MaxLenght</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La matricola deve essere di 7 cifre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionManual_WrongCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionBarcode_Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEGGI IL BARCODE EVIDENZIATO SUL MACINACAFFÈ O SULL'IMBALLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionBarcode_StartScan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comincia la lettura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionBarcode_InsetManually</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O inseriscilo manualmente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionBarcode_ErrorWrongCodeTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DescriptionBarcode_ErrorWrongCodeMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Il barcode letto non è valido</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Termini di servizio </x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Registrando questo macinacaffè, si dichiare di eserne il proprietario oppure di avere l'autorizzazione del proprietario di accedere alle informazioni del macinacaffè attraverso l'APP, in accordo con i termini di servizio e i relativi aggiornamenti, accessibili dal menu sotto la voce "impostazioni"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_Accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_ActivateAlertMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vuoi procedere ora all'attivazione? (potrai comunque eseguire la procedura in un secondo momento menu dell'app)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_ActivateAlertPositive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_ActivateAlertNegative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_ErrorOwner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hai già registrato questo macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PolicyViewController_ErrorAlert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non è possibile completare l'operazione. Riprovare più tardi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONNETTITI AL MACINACAFFÈ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_Text1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assicurati che il macinacaffè sia impostato sulla modalità di rete peer-to-peer. Se lo è, nella zona notifiche della schermata del display in standby è visibile l'icona [wifi-icon]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_Text2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entra nel menu informazioni di connessione del macinacaffè ([settings-icon] .6) e visualizza il nome e la password della rete peer-to-peer del macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_Text3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ricerca la rete peer-to-peer del macinacaffè dalle impostazioni di rete del tuo smartphone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_Text4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inserisci il nome della rete e la password che leggi sul macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_Text5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ritorna sull'app Mazzer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConnectGrinderViewController_GpsAlert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Se la procedura di attivazione non va a buon fine provare a disattivare i dati mobili del cellulare o ad attivare la geolocalizzazione e riprovare ad attivare il macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActivationDone_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATTIVAZIONE COMPLETATA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActivationDone_Mac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAC address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActivationDone_Conclude</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concludi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActivationDone_NetworkParams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Per connettere il macinacaffè alla rete wi-fi è necessario configurare i parametri di rete. Vuoi procedere ora?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim_YetConnected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IL MACINACAFFÈ È GIÀ ASSOCIATO AD UN ALTRO UTENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim_RequestAccess</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invia richiesta accesso al master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim_RequestRelease</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chiedi all'utente master di rilasciare il macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim_RequestDone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claim_Connection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verificare che lo smartphone sia connesso a internet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NetworkConfig_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONFIGURA I PARAMETRI DI RETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NetworkConfig_NetworkName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nome della rete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NetworkConfig_Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NetworkConfig_Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NetworkConfig_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Configurazione completata con successo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NetworkConfig_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore, assicurarsi di essere connessi a internet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Grinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Disable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISATTIVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Role</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Profilo utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_GrinderAdmin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amministratore macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>indirizzo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_RegistrationDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data di registrazione</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_ActivationDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data di attivazione</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Descrizione</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_ServiceNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contatto servizio tecnico</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Ssid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Country</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_UserPrivileges</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gestisci privilegi utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_WifiCredentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Imposta parametri WiFi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_ReplaceBoard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sostituisci scheda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Activate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attiva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_RemoveGrinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rimuovi macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invia modifiche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_OkAlert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parametri aggiornati con successo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_ErrorAlert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore, assicurarsi di essere connessi a internet e non alla rete del macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_DeletedAlert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Macinacaffè rimosso. Sarai ridirezzionato al Parco Macchine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderEdit_Ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_FindAndAdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cerca e aggiungi un utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_FindEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inserisci l'email di un utente registrato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_Role</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruolo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_AddUser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGGIUNGI UTENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_UserAdded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Utente aggiunto con successo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AddUserPermissions_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Questa mail non è registrata, prego reinserire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderUserPermissions_ErrorTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderUserPermissions_ErrorText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Si è verificato un errore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderUserPermissions_Sure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Confermi la modifica di ruolo per questo utente?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NotActivated_Activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATTIVAZIONE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_RemainingBlade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vita utile macina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_DosesLeft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dosi mancanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_SerialNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Modello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_MasterUser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Utente Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_SortBy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ordina per</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RESET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Apply</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APPLICARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILTRA I MACINACAFFÈ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filter_OrderBy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORDINA PER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_Opening</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orario di apertura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_Closing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giorno di chiusura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_ViewFullscreen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visualizza grafico a schermo intero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oggi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_TenDaysAverage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Media su 10 giorni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_DoseCounter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contatore dosi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_TotalManualTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tempo macinato manualmente oggi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_PartialDosesCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contatore dosi parziali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_DailyAverage10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Media giornaliera su 10 giorni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_LastUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ultimo aggiornamento:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_At</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_From</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Da:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_To</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_TotalDoses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dosi totali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_Ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_ErrorLogs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore nel caricamento dei log</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_ErrorWeekDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore aggiornamento giorno di chiusura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_ErrorHour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore aggiornamento orario di apertura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Survey_RateFromTo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VALUTA DA 1 A 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Survey_Vote</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VOTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Survey_Ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Survey_ThankYou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grazie per aver Votato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unlock_Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unlock_Unlock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unlock_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accertarsi che la password sia corretta e che lo smartphone sia connesso a internet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_SelectedSerial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleziona matricole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Opened</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aperto il</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Closed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chiuso il</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_SurveyTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Titolo del sondaggio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Titolo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_WriteQuestions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scrivi una domanda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Domanda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_GoToRating</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vai alla finestra di voto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Stop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stop sondaggio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Restart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ricomincia raccolta voti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_InsertTitleAndQuestion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inserisci almeno il titolo e una domanda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating_GeneralAverage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Media generale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Stop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Send</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INVIA FIRMWARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trasferimento al macinacaffè in corso, non disconnetersi dal macinacaffè o dalla rete wi-fi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Update</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIRMWARE AGGIORNATO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Downloading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaricare file di aggiornamento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_Sent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aggiornamento traferito. Procedi all'installazione dalla pagina Service del menu del macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_ErrorAlertSending</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore di invio file. Prego riprovare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_ErrorSending</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore di invio file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_DownloadCompleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaricamento completato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_ErrorAlertDownloading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore scaricamento firmware. Prego riprovare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware_ErrorDownloading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore scaricamento firmware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_LastUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_At</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_BatteryOK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_BatteryDamaged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANNEGGIATA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_AlertDownloaded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaricamento completato con successo. Vuoi trasferire l'aggiornamento al macinacaffè adesso?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_LoadFirmware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Traferimento file di aggiornamento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_UpdateAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Un aggiornamento Firmware del macinacaffè è disponibile. Vuoi scaricarlo ora nello smartphone?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_DownloadFirmware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaricamento file di aggiornamento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_FirmwareUpdated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firmware aggiornato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_BurrsInfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INFO MACINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_ManageDosesLimit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GESTISCI LIMITAZIONE DOSI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_GrindingManagement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GESTIONE DELLA MACINATURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_Other</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_LimitDoses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Limita dosi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_GrinderShutoff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blocco macinino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_ManaualGrinding</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Macinatura manuale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_BlockDosingAdjustment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blocca regolazione dosi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_FirmwareVersion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Versione Firmware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_BurrsServiceLife</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_LastReplacement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data di ultima sostituzione</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_DosesLeft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dosi rimanenti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_LastReplenishment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data di ultima ricarica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_AddDoses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aggiungi dosi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_AddDosesPlaceholder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aggiungi qui le dosi, massimo 5 cifre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_BatteryLife</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vita batteria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_ServiceNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_ServicePassword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_SaveB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_FirmwareB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scarica Firmware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Modifiche inviate con successo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore, verifica la rete WiFi del macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_PasswordDigits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Password deve essere di 4 cifre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Service_DosesDigits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le dosi devono essere di 5 cifre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_OpenMenu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apri il menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_GoToMyGrinders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vai al parco macchine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_GrinderRegistration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGISTRAZIONE MACINACAFFÈ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_AddFirstGrinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E aggiungi il tuo primo macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_GrinderSelection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELEZIONE MACINACAFFÈ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_SelectAGrinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleziona un macinacaffè dalla tua lista</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_NotConnected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Il macinacaffè non è connesso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_NavigateSave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vuoi salvare le modifiche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_AllGrindersSelected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tutti i macinacaffè selezionati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_ChooseAGrinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scegli un macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_Among</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Home_Selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>selezionati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HomeNoPermissions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Type1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Type2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Type3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Totale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_LastUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Votes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VOTI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Period</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Periodo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_SerialNumbers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_QuestionText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Testo della domanda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_GeneralAverage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_VoteCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Numero di voti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_UpdateProfile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGGIORNA PROFILO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_ConfirmPassword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conferma password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Società</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Mr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Ms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Surname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Role</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Zip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Country</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Activity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salva modifiche</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_ErrorOccouredRedirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore, sarai reindirizzato alla pagina principale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_ValidationError</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_CheckFields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Controlla i campi inseriti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_ErrorOccoured</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateUser_Done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Modifiche inviate, Sarai ridirezzionato al Parco Macchine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PermissionCell_Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PermissionCell_Activity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PermissionCell_UserRole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruolo utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HomeDetail_Grinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Profile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Profilo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_MyGrinders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attivazione</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Settings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Impostazioni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Privacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ToS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>App_Version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Versione App</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_LogoutAlert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Confermi il logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Adjustments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGOLAZIONI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Statistics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STATISTICHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERVICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_Survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SONDAGGIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Monday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lunedì</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Tuesday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martedì</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Wednesday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercoledì</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Thursday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giovedì</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Friday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venerdì</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Saturday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sabato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_Sunday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Domenica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerWeek_AllDays</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nessun giorno di chiusura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerSorting_Serial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerSorting_Activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerSorting_DosesLeft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerSorting_RemainingLife</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerRoles_MASTER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MASTER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerRoles_MANAGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANAGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerRoles_OPERATOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPERATORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerRoles_SERVICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerRoles_INSTALLER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTALLATORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerActivities_RoastingBusiness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Torrefattore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerActivities_CoffeeShop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esercizio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerActivities_CoffeeFranchise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Catena di esercizi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerActivities_Distributor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Distributore di attrezzatura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerActivities_TechnicalAssistance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assistenza tecnica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickerActivities_Other</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Altro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scanner_WrongCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Il codice scansionato non è nel formato corretto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrinderUnknown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Il macinacaffè non è mai stato connesso prima. Prego aggiornare la lista parco macchine in modalità di connessione peer-to-peer per scaricare i dati</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Dose1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dose 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Dose2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dose 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Dose3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dose 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pausa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Seconds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>secondi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore, Accertarsi che il macinacaffè sia connesso alla stessa rete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_Submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings_InvalidParam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Il valore inserito non è valido</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_GrindingErrors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Errore nei log, tutti i dati corrotti saranno forzati al valore 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring_TimePickerOk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permissions_Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Questo utente può vedere e modificare tuti i dati del macinacaffè. Non può gestire i privilegi utente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permissions_Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Questo utente può solamente vedere i dati della sezione "Service" per questo macinacaffè, e può modificare la password del menu service del macinacaffè</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permissions_Operator</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Questo utente può vedere tutti i dati del macinacaffè (la password della sezione service non è visibile). Può modificare i parametri solamente nella sezione "Regolazioni" e "Sondaggio"  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Permissions_Installer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Questo utente può solo attivare la connettività del macinacaffè, e aggiornare il firmware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error_Invalid_Serial_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error_Invalid_Serial_Message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matricola non valida per il macinacaffè connesso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dosi macinate negli ultimi 10 giorni</x:t>
+  </x:si>
+  <x:si>
     <x:t>LoginViewController_RecoverPassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password recovery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recupera password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginViewController_SignUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Signin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Registrati</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginViewController_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoginViewController_ErrorMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login not possible, please check login credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Impossibile effettuare il login, controllare le credenziali di accesso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_ResetPassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_InsertEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insert your E-mail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inserisci la tua E-mail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_AlertOk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Completed procedure</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Procedura completata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_AlertOkMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Riceverai una mail con i passi necessari per effettuare il reset della password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_AlertError</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PasswordResetViewController_AlertErrorMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Impossibile effettuare il reset della password, controllare i dati inseriti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_LoginData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATI DI LOGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_ConfirmPassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Confirm password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_UserData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INFORMAZIONI PERSONALI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compagnia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Mr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sig.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Ms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sig.ra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nome</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Surname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cognome</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Role</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruolo aziendale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Telefono</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indirizzo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Zip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Città</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Activity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tipo di attività</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_RequiredFields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*Campi obbligatori</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Authorizations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTORIZZAZIONI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Privacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Termini di servizio e politica della Privacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Marketing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Autorizzazione dati commerciali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_SignUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Commercial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_ValidationError</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore di validazione</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_CheckFields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Controlla i dati inseriti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Registered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Registrazione completata, controlla il tuo indirizzo email per verificare l'utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignUpViewController_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrindersList</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parco Macchine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderSettings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Regolazioni</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderMonitor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Statistiche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderService</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderLiking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sondaggio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEnvironment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vai a:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderSelectConnected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleziona almeno un macinacaffè connesso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderSelectNoPermissions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L'accesso a questa sezione è vietato per questo macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderCell_Deactivated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disattiva</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderCell_Grinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSERISCI MANUALMENTE lA MATRICOLA EVIDENZIATA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Matricola</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_Continue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Procedi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indietro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_ErrorWrongCodeTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_ErrorWrongCodeMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Matricola non valida</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_MaxLenght</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La matricola deve essere di 7 cifre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionManual_WrongCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionBarcode_Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEGGI IL BARCODE EVIDENZIATO SUL MACINACAFFÈ O SULL'IMBALLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionBarcode_StartScan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comincia la lettura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionBarcode_InsetManually</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O inseriscilo manualmente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionBarcode_ErrorWrongCodeTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DescriptionBarcode_ErrorWrongCodeMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Il barcode letto non è valido</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Termini di servizio </x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Registrando questo macinacaffè, si dichiare di eserne il proprietario oppure di avere l'autorizzazione del proprietario di accedere alle informazioni del macinacaffè attraverso l'APP, in accordo con i termini di servizio e i relativi aggiornamenti, accessibili dal menu sotto la voce "impostazioni"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_Accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_ActivateAlertMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vuoi procedere ora all'attivazione? (potrai comunque eseguire la procedura in un secondo momento menu dell'app)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_ActivateAlertPositive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_ActivateAlertNegative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_ErrorOwner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hai già registrato questo macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PolicyViewController_ErrorAlert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non è possibile completare l'operazione. Riprovare più tardi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONNETTITI AL MACINACAFFÈ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_Text1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assicurati che il macinacaffè sia impostato sulla modalità di rete peer-to-peer. Se lo è, nella zona notifiche della schermata del display in standby è visibile l'icona [wifi-icon]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_Text2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entra nel menu informazioni di connessione del macinacaffè ([settings-icon] .6) e visualizza il nome e la password della rete peer-to-peer del macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_Text3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ricerca la rete peer-to-peer del macinacaffè dalle impostazioni di rete del tuo smartphone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_Text4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inserisci il nome della rete e la password che leggi sul macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_Text5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ritorna sull'app Mazzer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConnectGrinderViewController_GpsAlert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Se la procedura di attivazione non va a buon fine provare a disattivare i dati mobili del cellulare o ad attivare la geolocalizzazione e riprovare ad attivare il macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActivationDone_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATTIVAZIONE COMPLETATA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActivationDone_Mac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAC address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActivationDone_Conclude</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concludi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActivationDone_NetworkParams</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Per connettere il macinacaffè alla rete wi-fi è necessario configurare i parametri di rete. Vuoi procedere ora?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claim_YetConnected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IL MACINACAFFÈ È GIÀ ASSOCIATO AD UN ALTRO UTENTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claim_RequestAccess</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Invia richiesta accesso al master</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claim_RequestRelease</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chiedi all'utente master di rilasciare il macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claim_RequestDone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claim_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claim_Connection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verificare che lo smartphone sia connesso a internet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NetworkConfig_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONFIGURA I PARAMETRI DI RETE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NetworkConfig_NetworkName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nome della rete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NetworkConfig_Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NetworkConfig_Save</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salva</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NetworkConfig_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Configurazione completata con successo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NetworkConfig_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore, assicurarsi di essere connessi a internet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Grinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Disable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DISATTIVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Role</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Profilo utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_GrinderAdmin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amministratore macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>indirizzo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_RegistrationDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data di registrazione</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_ActivationDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data di attivazione</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descrizione</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_ServiceNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contatto servizio tecnico</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Ssid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_UserPrivileges</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gestisci privilegi utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_WifiCredentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Imposta parametri WiFi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_ReplaceBoard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sostituisci scheda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Activate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attiva</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_RemoveGrinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rimuovi macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Save</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Invia modifiche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_OkAlert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parametri aggiornati con successo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_ErrorAlert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore, assicurarsi di essere connessi a internet e non alla rete del macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_DeletedAlert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Macinacaffè rimosso. Sarai ridirezzionato al Parco Macchine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderEdit_Ok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_FindAndAdd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cerca e aggiungi un utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_FindEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inserisci l'email di un utente registrato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_Role</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruolo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_AddUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AGGIUNGI UTENTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_UserAdded</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Utente aggiunto con successo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AddUserPermissions_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Questa mail non è registrata, prego reinserire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderUserPermissions_ErrorTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderUserPermissions_ErrorText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Si è verificato un errore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderUserPermissions_Sure</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Confermi la modifica di ruolo per questo utente?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NotActivated_Activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATTIVAZIONE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_RemainingBlade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vita utile macina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_DosesLeft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dosi mancanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_SerialNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Modello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Tag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_MasterUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Utente Master</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_SortBy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ordina per</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RESET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Apply</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APPLICARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FILTRA I MACINACAFFÈ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filter_OrderBy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORDINA PER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_Opening</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orario di apertura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_Closing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Giorno di chiusura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_ViewFullscreen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Visualizza grafico a schermo intero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_Today</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oggi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_TenDaysAverage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Media su 10 giorni</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_DoseCounter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contatore dosi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_TotalManualTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tempo macinato manualmente oggi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_PartialDosesCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contatore dosi parziali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_DailyAverage10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Media giornaliera su 10 giorni</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_LastUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ultimo aggiornamento:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_At</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_From</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Da:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_To</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_TotalDoses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dosi totali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_Ok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_ErrorLogs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore nel caricamento dei log</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_ErrorWeekDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore aggiornamento giorno di chiusura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_ErrorHour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore aggiornamento orario di apertura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Survey_RateFromTo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VALUTA DA 1 A 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Survey_Vote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VOTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Survey_Ok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Survey_ThankYou</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grazie per aver Votato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unlock_Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unlock_Unlock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unlock_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accertarsi che la password sia corretta e che lo smartphone sia connesso a internet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_SelectedSerial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleziona matricole</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Opened</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aperto il</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Closed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chiuso il</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_SurveyTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Titolo del sondaggio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Titolo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_WriteQuestions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scrivi una domanda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Domanda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_GoToRating</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vai alla finestra di voto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Stop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stop sondaggio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Restart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ricomincia raccolta voti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_InsertTitleAndQuestion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inserisci almeno il titolo e una domanda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating_GeneralAverage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Media generale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Ok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Stop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Send</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INVIA FIRMWARE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Running</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trasferimento al macinacaffè in corso, non disconnetersi dal macinacaffè o dalla rete wi-fi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Update</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FIRMWARE AGGIORNATO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Downloading</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scaricare file di aggiornamento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_Sent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aggiornamento traferito. Procedi all'installazione dalla pagina Service del menu del macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_ErrorAlertSending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore di invio file. Prego riprovare</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_ErrorSending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore di invio file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_DownloadCompleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scaricamento completato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_ErrorAlertDownloading</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore scaricamento firmware. Prego riprovare</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware_ErrorDownloading</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore scaricamento firmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_LastUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_At</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_BatteryOK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_BatteryDamaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANNEGGIATA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_AlertDownloaded</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scaricamento completato con successo. Vuoi trasferire l'aggiornamento al macinacaffè adesso?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_LoadFirmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Traferimento file di aggiornamento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_UpdateAvailable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Un aggiornamento Firmware del macinacaffè è disponibile. Vuoi scaricarlo ora nello smartphone?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_DownloadFirmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scaricamento file di aggiornamento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_FirmwareUpdated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firmware aggiornato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_BurrsInfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INFO MACINE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_ManageDosesLimit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GESTISCI LIMITAZIONE DOSI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_GrindingManagement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GESTIONE DELLA MACINATURA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_Other</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALTRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_LimitDoses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Limita dosi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_GrinderShutoff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blocco macinino</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_ManaualGrinding</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Macinatura manuale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_BlockDosingAdjustment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blocca regolazione dosi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_FirmwareVersion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Versione Firmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_BurrsServiceLife</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_LastReplacement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data di ultima sostituzione</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_DosesLeft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dosi rimanenti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_LastReplenishment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data di ultima ricarica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_AddDoses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aggiungi dosi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_AddDosesPlaceholder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aggiungi qui le dosi, massimo 5 cifre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_BatteryLife</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vita batteria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_ServiceNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_ServicePassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_SaveB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_FirmwareB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scarica Firmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Modifiche inviate con successo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore, verifica la rete WiFi del macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_PasswordDigits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Password deve essere di 4 cifre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service_DosesDigits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le dosi devono essere di 5 cifre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_OpenMenu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apri il menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_GoToMyGrinders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vai al parco macchine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_GrinderRegistration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REGISTRAZIONE MACINACAFFÈ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_AddFirstGrinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E aggiungi il tuo primo macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_GrinderSelection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELEZIONE MACINACAFFÈ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_SelectAGrinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleziona un macinacaffè dalla tua lista</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_NotConnected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Il macinacaffè non è connesso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_NavigateSave</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vuoi salvare le modifiche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_AllGrindersSelected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tutti i macinacaffè selezionati</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_ChooseAGrinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scegli un macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_Among</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Home_Selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>selezionati</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HomeNoPermissions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Type1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Type2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Type3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Totale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_LastUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Votes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VOTI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Period</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Periodo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_SerialNumbers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_QuestionText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Testo della domanda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_GeneralAverage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_VoteCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Numero di voti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_UpdateProfile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AGGIORNA PROFILO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_ConfirmPassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Conferma password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Società</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Mr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Ms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Surname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Role</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Zip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Activity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Save</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salva modifiche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_ErrorOccouredRedirect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore, sarai reindirizzato alla pagina principale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_ValidationError</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_CheckFields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Controlla i campi inseriti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_ErrorOccoured</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UpdateUser_Done</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Modifiche inviate, Sarai ridirezzionato al Parco Macchine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PermissionCell_Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PermissionCell_Activity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PermissionCell_UserRole</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruolo utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HomeDetail_Grinder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Profile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Profilo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_MyGrinders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attivazione</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Settings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Impostazioni</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Privacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ToS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>App_Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Versione App</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_LogoutAlert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Confermi il logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Adjustments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REGOLAZIONI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Statistics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STATISTICHE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SERVICE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menu_Survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SONDAGGIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Monday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lunedì</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Tuesday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martedì</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Wednesday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mercoledì</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Thursday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Giovedì</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Friday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Venerdì</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Saturday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sabato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_Sunday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Domenica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerWeek_AllDays</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nessun giorno di chiusura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerSorting_Serial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerSorting_Activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerSorting_DosesLeft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerSorting_RemainingLife</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerRoles_MASTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MASTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerRoles_MANAGER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANAGER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerRoles_OPERATOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPERATORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerRoles_SERVICE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerRoles_INSTALLER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSTALLATORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerActivities_RoastingBusiness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Torrefattore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerActivities_CoffeeShop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Esercizio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerActivities_CoffeeFranchise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Catena di esercizi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerActivities_Distributor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Distributore di attrezzatura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerActivities_TechnicalAssistance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assistenza tecnica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickerActivities_Other</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Altro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scanner_WrongCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Il codice scansionato non è nel formato corretto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GrinderUnknown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Il macinacaffè non è mai stato connesso prima. Prego aggiornare la lista parco macchine in modalità di connessione peer-to-peer per scaricare i dati</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Dose1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dose 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Dose2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dose 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Dose3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dose 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pausa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Seconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>secondi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore, Accertarsi che il macinacaffè sia connesso alla stessa rete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_Submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings_InvalidParam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Il valore inserito non è valido</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_GrindingErrors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Errore nei log, tutti i dati corrotti saranno forzati al valore 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring_TimePickerOk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permissions_Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Questo utente può vedere e modificare tuti i dati del macinacaffè. Non può gestire i privilegi utente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permissions_Service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Questo utente può solamente vedere i dati della sezione "Service" per questo macinacaffè, e può modificare la password del menu service del macinacaffè</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permissions_Operator</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Questo utente può vedere tutti i dati del macinacaffè (la password della sezione service non è visibile). Può modificare i parametri solamente nella sezione "Regolazioni" e "Sondaggio"  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Permissions_Installer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Questo utente può solo attivare la connettività del macinacaffè, e aggiornare il firmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error_Invalid_Serial_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error_Invalid_Serial_Message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Matricola non valida per il macinacaffè connesso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dosi macinate negli ultimi 10 giorni</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1934,12 +1925,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="translate_mapping" displayName="translate_mapping" ref="A1:C341" totalsRowShown="0">
-  <x:autoFilter ref="A1:C341"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="translate_mapping" displayName="translate_mapping" ref="A1:C340" totalsRowShown="0">
+  <x:autoFilter ref="A1:C340"/>
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="Id"/>
-    <x:tableColumn id="2" name="English/EN(en)"/>
-    <x:tableColumn id="3" name="Italiano/IT(it)"/>
+    <x:tableColumn id="2" name="en"/>
+    <x:tableColumn id="3" name="it"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -2233,7 +2224,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C341"/>
+  <x:dimension ref="A1:C340"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2269,15 +2260,15 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
@@ -2291,37 +2282,37 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>19</x:v>
@@ -2365,21 +2356,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -2387,54 +2378,54 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -2442,43 +2433,43 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -2662,43 +2653,43 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -2717,32 +2708,32 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -2882,58 +2873,58 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B61" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B62" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C62" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B63" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
     </x:row>
@@ -2953,32 +2944,32 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B67" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B68" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
@@ -3019,65 +3010,65 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:3">
       <x:c r="A77" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="B77" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:3">
@@ -3228,43 +3219,43 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:3">
       <x:c r="A94" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:3">
@@ -3283,32 +3274,32 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:3">
       <x:c r="A97" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:3">
       <x:c r="A98" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:3">
@@ -3327,32 +3318,32 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:3">
       <x:c r="A101" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:3">
       <x:c r="A102" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:3">
@@ -3382,32 +3373,32 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:3">
       <x:c r="A106" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="B106" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:3">
       <x:c r="A107" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="B107" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:3">
@@ -3437,54 +3428,54 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:3">
       <x:c r="A111" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:3">
       <x:c r="A112" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:3">
       <x:c r="A113" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:3">
       <x:c r="A114" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:3">
@@ -3657,32 +3648,32 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:3">
       <x:c r="A131" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:3">
       <x:c r="A132" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C132" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:3">
@@ -3723,98 +3714,98 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:3">
       <x:c r="A137" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>261</x:v>
-      </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:3">
       <x:c r="A138" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:3">
       <x:c r="A139" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>264</x:v>
-      </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:3">
       <x:c r="A140" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:3">
       <x:c r="A141" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:3">
       <x:c r="A142" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:3">
       <x:c r="A143" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:3">
       <x:c r="A144" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:3">
@@ -4009,32 +4000,32 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:3">
       <x:c r="A163" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>307</x:v>
       </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>308</x:v>
-      </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:3">
       <x:c r="A164" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>236</x:v>
-      </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:3">
@@ -4075,65 +4066,65 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:3">
       <x:c r="A169" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>319</x:v>
-      </x:c>
       <x:c r="C169" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:3">
       <x:c r="A170" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:3">
       <x:c r="A171" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:3">
       <x:c r="A172" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:3">
       <x:c r="A173" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:3">
@@ -4284,32 +4275,32 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:3">
       <x:c r="A188" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>354</x:v>
-      </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:3">
       <x:c r="A189" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:3">
@@ -4416,54 +4407,54 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:3">
       <x:c r="A200" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:3">
       <x:c r="A201" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:3">
       <x:c r="A202" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:3">
       <x:c r="A203" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>236</x:v>
-      </x:c>
       <x:c r="C203" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:3">
@@ -4614,32 +4605,32 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:3">
       <x:c r="A218" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>409</x:v>
       </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:3">
       <x:c r="A219" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>411</x:v>
       </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>259</x:v>
-      </x:c>
       <x:c r="C219" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:3">
@@ -4691,54 +4682,54 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:3">
       <x:c r="A225" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>422</x:v>
       </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>423</x:v>
-      </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:3">
       <x:c r="A226" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:3">
       <x:c r="A227" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>425</x:v>
       </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>426</x:v>
-      </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:3">
       <x:c r="A228" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>427</x:v>
       </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
       <x:c r="C228" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:3">
@@ -4911,32 +4902,32 @@
         <x:v>458</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:3">
       <x:c r="A245" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>460</x:v>
       </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>461</x:v>
-      </x:c>
       <x:c r="C245" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:3">
       <x:c r="A246" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>462</x:v>
       </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
       <x:c r="C246" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:3">
@@ -4966,43 +4957,43 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:3">
       <x:c r="A250" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:3">
       <x:c r="A251" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:3">
       <x:c r="A252" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>472</x:v>
       </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="C252" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:3">
@@ -5010,54 +5001,54 @@
         <x:v>473</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:3">
       <x:c r="A254" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
       <x:c r="C254" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:3">
       <x:c r="A255" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:3">
       <x:c r="A256" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>478</x:v>
       </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>479</x:v>
-      </x:c>
       <x:c r="C256" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:3">
       <x:c r="A257" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>480</x:v>
       </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>354</x:v>
-      </x:c>
       <x:c r="C257" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:3">
@@ -5065,32 +5056,32 @@
         <x:v>481</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:3">
       <x:c r="A259" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>483</x:v>
       </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>484</x:v>
-      </x:c>
       <x:c r="C259" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:3">
       <x:c r="A260" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>485</x:v>
       </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="C260" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:3">
@@ -5098,26 +5089,26 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:3">
       <x:c r="A262" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:3">
       <x:c r="A263" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
         <x:v>56</x:v>
@@ -5128,7 +5119,7 @@
     </x:row>
     <x:row r="264" spans="1:3">
       <x:c r="A264" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
         <x:v>58</x:v>
@@ -5139,7 +5130,7 @@
     </x:row>
     <x:row r="265" spans="1:3">
       <x:c r="A265" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
         <x:v>60</x:v>
@@ -5150,7 +5141,7 @@
     </x:row>
     <x:row r="266" spans="1:3">
       <x:c r="A266" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
         <x:v>62</x:v>
@@ -5161,7 +5152,7 @@
     </x:row>
     <x:row r="267" spans="1:3">
       <x:c r="A267" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
         <x:v>64</x:v>
@@ -5172,7 +5163,7 @@
     </x:row>
     <x:row r="268" spans="1:3">
       <x:c r="A268" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
         <x:v>66</x:v>
@@ -5183,7 +5174,7 @@
     </x:row>
     <x:row r="269" spans="1:3">
       <x:c r="A269" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
         <x:v>68</x:v>
@@ -5194,7 +5185,7 @@
     </x:row>
     <x:row r="270" spans="1:3">
       <x:c r="A270" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
         <x:v>70</x:v>
@@ -5205,7 +5196,7 @@
     </x:row>
     <x:row r="271" spans="1:3">
       <x:c r="A271" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
         <x:v>72</x:v>
@@ -5216,167 +5207,167 @@
     </x:row>
     <x:row r="272" spans="1:3">
       <x:c r="A272" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:3">
       <x:c r="A273" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:3">
       <x:c r="A274" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>501</x:v>
       </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>502</x:v>
-      </x:c>
       <x:c r="C274" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:3">
       <x:c r="A275" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:3">
       <x:c r="A276" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>504</x:v>
       </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>505</x:v>
-      </x:c>
       <x:c r="C276" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:3">
       <x:c r="A277" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:3">
       <x:c r="A278" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>507</x:v>
       </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>508</x:v>
-      </x:c>
       <x:c r="C278" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:3">
       <x:c r="A279" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:3">
       <x:c r="A280" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:3">
       <x:c r="A281" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:3">
       <x:c r="A282" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:3">
       <x:c r="A283" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B283" s="0" t="s">
         <x:v>514</x:v>
       </x:c>
-      <x:c r="B283" s="0" t="s">
-        <x:v>515</x:v>
-      </x:c>
       <x:c r="C283" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:3">
       <x:c r="A284" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:3">
       <x:c r="A285" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B285" s="0" t="s">
         <x:v>517</x:v>
       </x:c>
-      <x:c r="B285" s="0" t="s">
-        <x:v>518</x:v>
-      </x:c>
       <x:c r="C285" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:3">
       <x:c r="A286" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B286" s="0" t="s">
         <x:v>519</x:v>
       </x:c>
-      <x:c r="B286" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="C286" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:3">
@@ -5384,26 +5375,26 @@
         <x:v>520</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:3">
       <x:c r="A288" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>522</x:v>
       </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>523</x:v>
-      </x:c>
       <x:c r="C288" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:3">
       <x:c r="A289" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
         <x:v>524</x:v>
@@ -5417,26 +5408,26 @@
         <x:v>525</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:3">
       <x:c r="A291" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>527</x:v>
       </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>528</x:v>
-      </x:c>
       <x:c r="C291" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:3">
       <x:c r="A292" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
         <x:v>529</x:v>
@@ -5582,65 +5573,65 @@
         <x:v>554</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:3">
       <x:c r="A306" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:3">
       <x:c r="A307" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:3">
       <x:c r="A308" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:3">
       <x:c r="A309" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:3">
       <x:c r="A310" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B310" s="0" t="s">
         <x:v>561</x:v>
       </x:c>
-      <x:c r="B310" s="0" t="s">
-        <x:v>259</x:v>
-      </x:c>
       <x:c r="C310" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:3">
@@ -5659,32 +5650,32 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:3">
       <x:c r="A313" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B313" s="0" t="s">
         <x:v>566</x:v>
       </x:c>
-      <x:c r="B313" s="0" t="s">
-        <x:v>567</x:v>
-      </x:c>
       <x:c r="C313" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:3">
       <x:c r="A314" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B314" s="0" t="s">
         <x:v>568</x:v>
       </x:c>
-      <x:c r="B314" s="0" t="s">
-        <x:v>539</x:v>
-      </x:c>
       <x:c r="C314" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:3">
@@ -5802,32 +5793,32 @@
         <x:v>589</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C325" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:3">
       <x:c r="A326" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B326" s="0" t="s">
         <x:v>591</x:v>
       </x:c>
-      <x:c r="B326" s="0" t="s">
-        <x:v>592</x:v>
-      </x:c>
       <x:c r="C326" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:3">
       <x:c r="A327" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B327" s="0" t="s">
         <x:v>593</x:v>
       </x:c>
-      <x:c r="B327" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
       <x:c r="C327" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>593</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:3">
@@ -5846,32 +5837,32 @@
         <x:v>596</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C329" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:3">
       <x:c r="A330" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B330" s="0" t="s">
         <x:v>598</x:v>
       </x:c>
-      <x:c r="B330" s="0" t="s">
-        <x:v>599</x:v>
-      </x:c>
       <x:c r="C330" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:3">
       <x:c r="A331" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B331" s="0" t="s">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="B331" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
       <x:c r="C331" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:3">
@@ -5879,32 +5870,32 @@
         <x:v>601</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C332" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:3">
       <x:c r="A333" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B333" s="0" t="s">
         <x:v>603</x:v>
       </x:c>
-      <x:c r="B333" s="0" t="s">
-        <x:v>604</x:v>
-      </x:c>
       <x:c r="C333" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:3">
       <x:c r="A334" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B334" s="0" t="s">
         <x:v>605</x:v>
       </x:c>
-      <x:c r="B334" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
       <x:c r="C334" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:3">
@@ -5934,54 +5925,40 @@
         <x:v>610</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C337" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:3">
       <x:c r="A338" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B338" s="0" t="s">
         <x:v>612</x:v>
       </x:c>
-      <x:c r="B338" s="0" t="s">
-        <x:v>613</x:v>
-      </x:c>
       <x:c r="C338" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>612</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:3">
       <x:c r="A339" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B339" s="0" t="s">
         <x:v>614</x:v>
       </x:c>
-      <x:c r="B339" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="C339" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>614</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:3">
       <x:c r="A340" s="0" t="s">
         <x:v>615</x:v>
       </x:c>
-      <x:c r="B340" s="0" t="s">
-        <x:v>616</x:v>
-      </x:c>
       <x:c r="C340" s="0" t="s">
-        <x:v>616</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="341" spans="1:3">
-      <x:c r="A341" s="0" t="s">
-        <x:v>617</x:v>
-      </x:c>
-      <x:c r="B341" s="0" t="s">
-        <x:v>618</x:v>
-      </x:c>
-      <x:c r="C341" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
